--- a/data/long_dif/P23_5-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_5-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12,05%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17,07%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 30,29</t>
+          <t>18,35; 32,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 15,35</t>
+          <t>8,68; 14,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 18,38</t>
+          <t>12,56; 21,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,5; 15,03</t>
+          <t>11,94; 18,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,96; 23,19</t>
+          <t>10,03; 15,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 14,39</t>
+          <t>14,31; 21,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 23,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 14,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 19,71</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>63,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,31%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,06%</t>
+          <t>71,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>64,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67,91%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64,88%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,66; 69,48</t>
+          <t>55,92; 69,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,15; 74,99</t>
+          <t>63,68; 75,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,4; 75,69</t>
+          <t>58,92; 71,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62,5; 71,19</t>
+          <t>67,69; 75,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,04; 71,36</t>
+          <t>63,92; 71,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,63; 71,6</t>
+          <t>59,64; 69,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>63,85; 71,46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65,41; 72,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>61,38; 69,42</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 16,44</t>
+          <t>9,74; 16,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,81; 25,47</t>
+          <t>13,69; 25,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 16,95</t>
+          <t>13,81; 23,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 25,64</t>
+          <t>10,45; 16,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,64</t>
+          <t>16,84; 23,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 23,61</t>
+          <t>14,35; 22,07</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 15,17</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 22,36</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15,14; 21,21</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 22,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 24,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 16,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,19; 19,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,44%</t>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,89%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,5; 72,71</t>
+          <t>13,49; 22,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,42; 72,47</t>
+          <t>15,65; 26,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,51; 71,14</t>
+          <t>10,85; 20,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,72; 71,36</t>
+          <t>15,01; 24,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>61,82; 69,95</t>
+          <t>10,88; 16,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,01; 71,06</t>
+          <t>15,96; 26,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 21,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14,33; 20,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 22,21</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>65,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>66,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>63,57%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>65,35%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67,31%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>62,29%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,17</t>
+          <t>59,52; 71,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,56</t>
+          <t>61,86; 73,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,64</t>
+          <t>53,35; 67,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 23,34</t>
+          <t>59,67; 70,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,12</t>
+          <t>62,41; 70,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,83</t>
+          <t>57,78; 68,79</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61,33; 69,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>63,42; 70,61</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57,61; 66,7</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 27,74</t>
+          <t>12,59; 22,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,23; 29,3</t>
+          <t>9,24; 15,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 33,68</t>
+          <t>18,03; 31,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 20,39</t>
+          <t>12,4; 19,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,83; 26,63</t>
+          <t>15,96; 23,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,5; 22,58</t>
+          <t>12,22; 20,78</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13,54; 19,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13,35; 18,48</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16,31; 24,73</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,36%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,58; 74,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>57,65; 78,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,09; 68,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>56,98; 73,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>51,8; 68,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,25; 73,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,66; 38,0</t>
+          <t>7,94; 27,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,72; 23,07</t>
+          <t>9,17; 31,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,81; 24,48</t>
+          <t>12,62; 56,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,79; 28,58</t>
+          <t>16,58; 34,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,53; 26,97</t>
+          <t>8,35; 20,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,01; 22,93</t>
+          <t>12,25; 29,66</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 27,61</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,48; 23,1</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 41,89</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>68,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>67,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>60,24%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>66,81%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61,1%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16,02; 23,99</t>
+          <t>47,42; 73,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,62</t>
+          <t>56,37; 77,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>15,11; 20,12</t>
+          <t>32,92; 70,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,91</t>
+          <t>48,55; 68,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,39; 21,12</t>
+          <t>55,66; 72,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,95</t>
+          <t>56,92; 77,15</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50,16; 67,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>59,1; 72,76</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>47,5; 70,25</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>60,83; 69,26</t>
+          <t>13,19; 43,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64,96; 72,31</t>
+          <t>8,89; 23,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>64,91; 71,08</t>
+          <t>8,2; 26,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>63,57; 69,65</t>
+          <t>10,34; 25,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>63,7; 69,09</t>
+          <t>14,9; 30,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,55; 70,33</t>
+          <t>7,55; 20,62</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>13,82; 31,63</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>13,8; 24,13</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 20,73</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,85; 18,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>12,55; 16,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,19; 16,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,03; 19,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>20,21%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>18,94%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16,83; 24,88</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 18,69</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>14,04; 22,54</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 20,67</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 15,15</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 22,49</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16,82; 21,43</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 15,96</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>16,11; 21,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>64,23%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>69,37%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>62,39%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>67,69%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>67,01%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>64,4%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>66,0%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>68,16%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>63,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>59,73; 68,04</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 72,57</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>57,93; 67,55</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>64,67; 70,83</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>64,08; 69,71</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>60,8; 67,97</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>63,33; 68,45</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>65,73; 70,26</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>60,42; 66,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 18,98</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>12,55; 19,34</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 23,82</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 16,82</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 22,35</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 19,38</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 17,06</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>15,88; 19,89</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 20,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
